--- a/S2022/comparison_between_debt_holders/avg_debt_occupation/FinishedSpreadsheets/OccupationsMD.xlsx
+++ b/S2022/comparison_between_debt_holders/avg_debt_occupation/FinishedSpreadsheets/OccupationsMD.xlsx
@@ -25,13 +25,13 @@
     <t>administrator</t>
   </si>
   <si>
-    <t>company</t>
-  </si>
-  <si>
     <t>esq</t>
   </si>
   <si>
     <t>executor</t>
+  </si>
+  <si>
+    <t>frederick company</t>
   </si>
   <si>
     <t>merchant</t>
@@ -431,7 +431,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>206.67</v>
+        <v>17.665733</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -442,7 +442,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>17.665733</v>
+        <v>303.77</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -453,7 +453,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>303.77</v>
+        <v>206.67</v>
       </c>
     </row>
     <row r="6" spans="1:3">

--- a/S2022/comparison_between_debt_holders/avg_debt_occupation/FinishedSpreadsheets/OccupationsMD.xlsx
+++ b/S2022/comparison_between_debt_holders/avg_debt_occupation/FinishedSpreadsheets/OccupationsMD.xlsx
@@ -14,12 +14,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>occupation</t>
   </si>
   <si>
     <t>6p_total</t>
+  </si>
+  <si>
+    <t># of people</t>
+  </si>
+  <si>
+    <t>average debt per person</t>
   </si>
   <si>
     <t>administrator</t>
@@ -398,94 +404,142 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>22.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>11.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>17.665733</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>17.665733</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>303.77</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>101.2566666666667</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>206.67</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>206.67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <v>78510.94</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6">
+        <v>47</v>
+      </c>
+      <c r="E6">
+        <v>1670.445531914894</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C7">
         <v>1237.07</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>618.535</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C8">
+        <v>33.33</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
         <v>33.33</v>
       </c>
     </row>

--- a/S2022/comparison_between_debt_holders/avg_debt_occupation/FinishedSpreadsheets/OccupationsMD.xlsx
+++ b/S2022/comparison_between_debt_holders/avg_debt_occupation/FinishedSpreadsheets/OccupationsMD.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>occupation</t>
   </si>
@@ -25,28 +25,31 @@
     <t># of people</t>
   </si>
   <si>
+    <t>% of total people</t>
+  </si>
+  <si>
     <t>average debt per person</t>
   </si>
   <si>
+    <t>merchant</t>
+  </si>
+  <si>
+    <t>shoemaker</t>
+  </si>
+  <si>
+    <t>executor</t>
+  </si>
+  <si>
+    <t>frederick company</t>
+  </si>
+  <si>
+    <t>shopkeeper</t>
+  </si>
+  <si>
     <t>administrator</t>
   </si>
   <si>
     <t>esq</t>
-  </si>
-  <si>
-    <t>executor</t>
-  </si>
-  <si>
-    <t>frederick company</t>
-  </si>
-  <si>
-    <t>merchant</t>
-  </si>
-  <si>
-    <t>shoemaker</t>
-  </si>
-  <si>
-    <t>shopkeeper</t>
   </si>
 </sst>
 </file>
@@ -404,13 +407,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -423,47 +426,56 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>22.5</v>
+        <v>78510.94</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="E2">
-        <v>11.25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>82.45614035087719</v>
+      </c>
+      <c r="F2">
+        <v>1670.445531914894</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3">
-        <v>17.665733</v>
+        <v>1237.07</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>17.665733</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>3.508771929824561</v>
+      </c>
+      <c r="F3">
+        <v>618.535</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>303.77</v>
@@ -472,15 +484,18 @@
         <v>3</v>
       </c>
       <c r="E4">
+        <v>5.263157894736842</v>
+      </c>
+      <c r="F4">
         <v>101.2566666666667</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>206.67</v>
@@ -489,58 +504,70 @@
         <v>1</v>
       </c>
       <c r="E5">
+        <v>1.754385964912281</v>
+      </c>
+      <c r="F5">
         <v>206.67</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6">
-        <v>78510.94</v>
+        <v>33.33</v>
       </c>
       <c r="D6">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>1670.445531914894</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>1.754385964912281</v>
+      </c>
+      <c r="F6">
+        <v>33.33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7">
-        <v>1237.07</v>
+        <v>22.5</v>
       </c>
       <c r="D7">
         <v>2</v>
       </c>
       <c r="E7">
-        <v>618.535</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>3.508771929824561</v>
+      </c>
+      <c r="F7">
+        <v>11.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8">
-        <v>33.33</v>
+        <v>17.665733</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8">
-        <v>33.33</v>
+        <v>1.754385964912281</v>
+      </c>
+      <c r="F8">
+        <v>17.665733</v>
       </c>
     </row>
   </sheetData>
